--- a/Stocks/INFIBEAM.xlsx
+++ b/Stocks/INFIBEAM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1052.6666666666667</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1398.0891779280983</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1306.9204412697748</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>60.166956044529506</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>5.6500000000000909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>97.100000000000136</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>5.818743563336852E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1231.0823446839227</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>82.82968688087476</v>
       </c>
       <c r="Y67">
         <v>67.732059671662057</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1443</v>
+      </c>
+      <c r="D83">
+        <v>1457.35</v>
+      </c>
+      <c r="E83">
+        <v>1416.95</v>
+      </c>
+      <c r="F83">
+        <v>1451</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1441.7666666666667</v>
+      </c>
+      <c r="H83">
+        <v>1429.4725841142467</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1442.2689270665051</v>
+      </c>
+      <c r="K83">
+        <v>1392.7872938629637</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>68.750759473118435</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>34.049999999999955</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>40.399999999999864</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.84282178217821957</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>1413.5827110492446</v>
+      </c>
+      <c r="W83">
+        <v>1364.5374433652812</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>49.045267683963402</v>
+      </c>
+      <c r="Y83">
+        <v>58.087404565381348</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1451</v>
+      </c>
+      <c r="D84">
+        <v>1474.7</v>
+      </c>
+      <c r="E84">
+        <v>1435</v>
+      </c>
+      <c r="F84">
+        <v>1438</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1449.2333333333333</v>
+      </c>
+      <c r="H84">
+        <v>1439.3529587237899</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1449.4758321628374</v>
+      </c>
+      <c r="K84">
+        <v>1402.1678952267496</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>59.41450280338416</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>39.700000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>7.5566750629722831E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1417.3392170416685</v>
+      </c>
+      <c r="W84">
+        <v>1369.9791142271122</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>47.360102814556285</v>
+      </c>
+      <c r="Y84">
+        <v>55.941944215216338</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1453.95</v>
+      </c>
+      <c r="D85">
+        <v>1477.35</v>
+      </c>
+      <c r="E85">
+        <v>1438</v>
+      </c>
+      <c r="F85">
+        <v>1470</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1461.7833333333335</v>
+      </c>
+      <c r="H85">
+        <v>1450.5681460285618</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1455.6700916822069</v>
+      </c>
+      <c r="K85">
+        <v>1410.1305851763607</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>71.375158955152457</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>32</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>39.349999999999909</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.81321473951715562</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>1425.4408759583348</v>
+      </c>
+      <c r="W85">
+        <v>1377.3880687288076</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>48.052807229527161</v>
+      </c>
+      <c r="Y85">
+        <v>54.3641168180785</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>147.94999999999999</v>
+      </c>
+      <c r="D86">
+        <v>156</v>
+      </c>
+      <c r="E86">
+        <v>145.1</v>
+      </c>
+      <c r="F86">
+        <v>146.6</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>149.23333333333335</v>
+      </c>
+      <c r="H86">
+        <v>799.90073968094759</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>1166.8545157528276</v>
+      </c>
+      <c r="K86">
+        <v>1129.0126773593915</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>4.3964436737377453</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.13761467889908249</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V86">
+        <v>1228.6961258108986</v>
+      </c>
+      <c r="W86">
+        <v>1286.2185821563035</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-57.522456345404862</v>
+      </c>
+      <c r="Y86">
+        <v>31.986802185381826</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="35"/>
+        <v>154.75</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="36"/>
+        <v>151.85</v>
+      </c>
+      <c r="AF86">
+        <f t="shared" si="37"/>
+        <v>150.55000000000001</v>
+      </c>
+      <c r="AG86">
+        <f t="shared" si="38"/>
+        <v>149.25</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="D87">
+        <v>148.15</v>
+      </c>
+      <c r="E87">
+        <v>142.15</v>
+      </c>
+      <c r="F87">
+        <v>143.25</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>144.51666666666668</v>
+      </c>
+      <c r="H87">
+        <v>472.20870317380712</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>940.47573447442153</v>
+      </c>
+      <c r="K87">
+        <v>909.70986016841562</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N87">
+        <v>4.3834279809311765</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.18333333333333238</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V87">
+        <v>1061.7044141476833</v>
+      </c>
+      <c r="W87">
+        <v>1201.554242737318</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-139.84982858963463</v>
+      </c>
+      <c r="Y87">
+        <v>-2.3805239696214642</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD87">
+        <f t="shared" si="35"/>
+        <v>147.45000000000002</v>
+      </c>
+      <c r="AE87">
+        <f t="shared" si="36"/>
+        <v>145.85</v>
+      </c>
+      <c r="AF87">
+        <f t="shared" si="37"/>
+        <v>145.15</v>
+      </c>
+      <c r="AG87">
+        <f t="shared" si="38"/>
+        <v>144.45000000000002</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>143.1</v>
+      </c>
+      <c r="D88">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="E88">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="F88">
+        <v>142.75</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>143.75</v>
+      </c>
+      <c r="H88">
+        <v>307.97935158690359</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>764.19223792455011</v>
+      </c>
+      <c r="K88">
+        <v>738.95211346432325</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>4.3810082055527833</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.24576271186440579</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>920.32681197111663</v>
+      </c>
+      <c r="W88">
+        <v>1123.12429883085</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-202.79748685973334</v>
+      </c>
+      <c r="Y88">
+        <v>-42.463916547643841</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="D89">
+        <v>147.4</v>
+      </c>
+      <c r="E89">
+        <v>143.4</v>
+      </c>
+      <c r="F89">
+        <v>145.6</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>145.46666666666667</v>
+      </c>
+      <c r="H89">
+        <v>226.72300912678514</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>627.12729616353897</v>
+      </c>
+      <c r="K89">
+        <v>606.60719936114037</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>4.7556234014193848</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.54999999999999716</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>801.13807166786796</v>
+      </c>
+      <c r="W89">
+        <v>1050.7150915100462</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-249.57701984217829</v>
+      </c>
+      <c r="Y89">
+        <v>-83.886537206550742</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>144.65</v>
+      </c>
+      <c r="D90">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="E90">
+        <v>143</v>
+      </c>
+      <c r="F90">
+        <v>143.05000000000001</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>143.95000000000002</v>
+      </c>
+      <c r="H90">
+        <v>185.33650456339257</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>520.16567479386367</v>
+      </c>
+      <c r="K90">
+        <v>503.58337728088696</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>4.7348764060276709</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>1.7857142857146846E-2</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V90">
+        <v>699.89375294973445</v>
+      </c>
+      <c r="W90">
+        <v>983.48064028707984</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-283.58688733734539</v>
+      </c>
+      <c r="Y90">
+        <v>-123.82660723270968</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>145.5</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>144.75</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>144.4</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>144.05000000000001</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>144.9</v>
+      </c>
+      <c r="D91">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="E91">
+        <v>144.35</v>
+      </c>
+      <c r="F91">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>145.98333333333332</v>
+      </c>
+      <c r="H91">
+        <v>165.65991894836293</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>437.41774706189398</v>
+      </c>
+      <c r="K91">
+        <v>423.75373788513429</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>5.2918538618217266</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>1.4500000000000171</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>3.4500000000000171</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.42028985507246663</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>614.64856018823684</v>
+      </c>
+      <c r="W91">
+        <v>921.43022248803686</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-306.78166229980002</v>
+      </c>
+      <c r="Y91">
+        <v>-160.41761824612774</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>146.94999999999999</v>
+      </c>
+      <c r="D92">
+        <v>149.9</v>
+      </c>
+      <c r="E92">
+        <v>144.65</v>
+      </c>
+      <c r="F92">
+        <v>145.5</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>146.68333333333334</v>
+      </c>
+      <c r="H92">
+        <v>156.17162614084813</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>373.52491438147308</v>
+      </c>
+      <c r="K92">
+        <v>361.73068502177114</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>5.2876382172410237</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>5.25</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.16190476190476083</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>542.47185862081574</v>
+      </c>
+      <c r="W92">
+        <v>863.95390971114523</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-321.48205109032949</v>
+      </c>
+      <c r="Y92">
+        <v>-192.63050481496811</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>149.30000000000001</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>147.9</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>147.30000000000001</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>146.65</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="D93">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="E93">
+        <v>143.5</v>
+      </c>
+      <c r="F93">
+        <v>144.65</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>144.98333333333335</v>
+      </c>
+      <c r="H93">
+        <v>150.57747973709075</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>323.14160007447907</v>
+      </c>
+      <c r="K93">
+        <v>313.23497723915534</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>5.272761675941112</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.34848484848484901</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>481.26849575607486</v>
+      </c>
+      <c r="W93">
+        <v>810.6721386214308</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-329.40364286535595</v>
+      </c>
+      <c r="Y93">
+        <v>-219.98513242504566</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>145.4</v>
+      </c>
+      <c r="D94">
+        <v>145.6</v>
+      </c>
+      <c r="E94">
+        <v>143.5</v>
+      </c>
+      <c r="F94">
+        <v>144.1</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>144.4</v>
+      </c>
+      <c r="H94">
+        <v>147.48873986854539</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>283.6879111690393</v>
+      </c>
+      <c r="K94">
+        <v>275.51609340823194</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>5.2607902742120976</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>2.0999999999999943</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.28571428571428376</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>429.39641948590946</v>
+      </c>
+      <c r="W94">
+        <v>761.29642464947301</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-331.90000516356355</v>
+      </c>
+      <c r="Y94">
+        <v>-242.36810697274925</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>145</v>
+      </c>
+      <c r="D95">
+        <v>147</v>
+      </c>
+      <c r="E95">
+        <v>143.5</v>
+      </c>
+      <c r="F95">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>144.93333333333334</v>
+      </c>
+      <c r="H95">
+        <v>146.21103660093937</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>253.31281979814167</v>
+      </c>
+      <c r="K95">
+        <v>246.17918376195817</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>5.3584613506763707</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>3.5</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.22857142857143181</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>385.53543187269264</v>
+      </c>
+      <c r="W95">
+        <v>715.59298578654909</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-330.05755391385645</v>
+      </c>
+      <c r="Y95">
+        <v>-259.90599636097068</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>144.85</v>
+      </c>
+      <c r="D96">
+        <v>148.65</v>
+      </c>
+      <c r="E96">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="F96">
+        <v>144.44999999999999</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>145.63333333333335</v>
+      </c>
+      <c r="H96">
+        <v>145.92218496713636</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>230.05441539855462</v>
+      </c>
+      <c r="K96">
+        <v>223.42825403707857</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>5.449845260846363</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>4.8499999999999943</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.1340206185566965</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V96">
+        <v>348.44536543073991</v>
+      </c>
+      <c r="W96">
+        <v>673.28609795050841</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-324.84073251976849</v>
+      </c>
+      <c r="Y96">
+        <v>-272.89294359273026</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>148.1</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>146.80000000000001</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>146.25</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>145.65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>143.9</v>
+      </c>
+      <c r="D97">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="E97">
+        <v>143.6</v>
+      </c>
+      <c r="F97">
+        <v>147.1</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>146.13333333333333</v>
+      </c>
+      <c r="H97">
+        <v>146.02775915023483</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>211.75343419887582</v>
+      </c>
+      <c r="K97">
+        <v>205.6886420288389</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>7.4238655638350384</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>4.0999999999999943</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.85365853658536706</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>317.46915536447221</v>
+      </c>
+      <c r="W97">
+        <v>634.30934995417442</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-316.84019458970221</v>
+      </c>
+      <c r="Y97">
+        <v>-281.68239379212463</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>148</v>
+      </c>
+      <c r="D98">
+        <v>160.15</v>
+      </c>
+      <c r="E98">
+        <v>146.1</v>
+      </c>
+      <c r="F98">
+        <v>159.44999999999999</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>155.23333333333332</v>
+      </c>
+      <c r="H98">
+        <v>150.63054624178409</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>200.28600437690341</v>
+      </c>
+      <c r="K98">
+        <v>192.44672157798581</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>17.462441034374056</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>13.349999999999994</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>14.050000000000011</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.95017793594305933</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>293.15851607763034</v>
+      </c>
+      <c r="W98">
+        <v>599.13458329090224</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-305.9760672132719</v>
+      </c>
+      <c r="Y98">
+        <v>-286.54112847635406</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>159.9</v>
+      </c>
+      <c r="D99">
+        <v>159.94999999999999</v>
+      </c>
+      <c r="E99">
+        <v>153.1</v>
+      </c>
+      <c r="F99">
+        <v>153.5</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>155.51666666666665</v>
+      </c>
+      <c r="H99">
+        <v>153.07360645422537</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>191.32244784870264</v>
+      </c>
+      <c r="K99">
+        <v>183.70300567176673</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>16.391994763496552</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>6.8499999999999943</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>5.8394160583942485E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>271.67259052722568</v>
+      </c>
+      <c r="W99">
+        <v>566.12461415824282</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-294.45202363101714</v>
+      </c>
+      <c r="Y99">
+        <v>-288.12330750728665</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>155.5</v>
+      </c>
+      <c r="D100">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="E100">
+        <v>150.5</v>
+      </c>
+      <c r="F100">
+        <v>150.9</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>152.53333333333333</v>
+      </c>
+      <c r="H100">
+        <v>152.80346989377935</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>183.51745943787984</v>
+      </c>
+      <c r="K100">
+        <v>176.32455996692968</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>15.860921151983778</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>5.6999999999999886</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>7.0175438596492362E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>253.09219198457558</v>
+      </c>
+      <c r="W100">
+        <v>535.3672353317063</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-282.27504334713069</v>
+      </c>
+      <c r="Y100">
+        <v>-286.95365467525545</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>152.44999999999999</v>
+      </c>
+      <c r="D101">
+        <v>152.44999999999999</v>
+      </c>
+      <c r="E101">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="F101">
+        <v>150.9</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>150.04999999999998</v>
+      </c>
+      <c r="H101">
+        <v>151.42673494688967</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>176.61357956279542</v>
+      </c>
+      <c r="K101">
+        <v>169.76354664094532</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>15.860921151983781</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>4.0999999999999943</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>5.6499999999999773</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.7256637168141612</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>237.37031629464087</v>
+      </c>
+      <c r="W101">
+        <v>506.888180862691</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-269.51786456805013</v>
+      </c>
+      <c r="Y101">
+        <v>-283.46649665381437</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>149.05000000000001</v>
+      </c>
+      <c r="D102">
+        <v>151.9</v>
+      </c>
+      <c r="E102">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="F102">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>145.66666666666669</v>
+      </c>
+      <c r="H102">
+        <v>148.54670080677818</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>171.12167299328533</v>
+      </c>
+      <c r="K102">
+        <v>163.6605362762908</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>13.70027393104861</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>5.2083333333333363E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>222.82103686469611</v>
+      </c>
+      <c r="W102">
+        <v>479.91868598397315</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-257.09764911927704</v>
+      </c>
+      <c r="Y102">
+        <v>-278.19272714690692</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>142.85</v>
+      </c>
+      <c r="D103">
+        <v>144.94999999999999</v>
+      </c>
+      <c r="E103">
+        <v>87.15</v>
+      </c>
+      <c r="F103">
+        <v>117.8</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>116.63333333333333</v>
+      </c>
+      <c r="H103">
+        <v>132.59001707005575</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>165.30574566144415</v>
+      </c>
+      <c r="K103">
+        <v>146.65819488155952</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>8.9805015670616903</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>30.649999999999991</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>57.799999999999983</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.5302768166089965</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>206.66395427012748</v>
+      </c>
+      <c r="W103">
+        <v>453.09507961478994</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-246.43112534466246</v>
+      </c>
+      <c r="Y103">
+        <v>-271.840406786458</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>120</v>
+      </c>
+      <c r="D104">
+        <v>131.5</v>
+      </c>
+      <c r="E104">
+        <v>120</v>
+      </c>
+      <c r="F104">
+        <v>123.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>125</v>
+      </c>
+      <c r="H104">
+        <v>128.79500853502788</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>157.79335773667879</v>
+      </c>
+      <c r="K104">
+        <v>140.7341515745463</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>17.118101803863922</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>11.5</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>193.86949976703093</v>
+      </c>
+      <c r="W104">
+        <v>428.68062927295364</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-234.81112950592271</v>
+      </c>
+      <c r="Y104">
+        <v>-264.43455133035093</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>126.45</v>
+      </c>
+      <c r="D105">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="E105">
+        <v>122.1</v>
+      </c>
+      <c r="F105">
+        <v>124.55</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>125.44999999999999</v>
+      </c>
+      <c r="H105">
+        <v>127.12250426751393</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>151.55038935075015</v>
+      </c>
+      <c r="K105">
+        <v>136.59322900242489</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>18.789947384172429</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>2.4500000000000028</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>7.5999999999999943</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.32236842105263219</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>183.20496134133387</v>
+      </c>
+      <c r="W105">
+        <v>406.1524345119941</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-222.94747317066023</v>
+      </c>
+      <c r="Y105">
+        <v>-256.13713569841281</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>126.5</v>
+      </c>
+      <c r="D106">
+        <v>130</v>
+      </c>
+      <c r="E106">
+        <v>122.3</v>
+      </c>
+      <c r="F106">
+        <v>129.94999999999999</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>127.41666666666667</v>
+      </c>
+      <c r="H106">
+        <v>127.26958546709031</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>146.76141393947233</v>
+      </c>
+      <c r="K106">
+        <v>133.41695589077491</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>28.111920152262144</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>7.6499999999999915</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>7.7000000000000028</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.99350649350649201</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>175.01189036574405</v>
+      </c>
+      <c r="W106">
+        <v>385.69299491851308</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-210.68110455276903</v>
+      </c>
+      <c r="Y106">
+        <v>-247.04592946928406</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>130</v>
+      </c>
+      <c r="D107">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="E107">
+        <v>127.9</v>
+      </c>
+      <c r="F107">
+        <v>129</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>130.06666666666669</v>
+      </c>
+      <c r="H107">
+        <v>128.6681260668785</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>143.76998861958958</v>
+      </c>
+      <c r="K107">
+        <v>132.19096569282493</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>27.419767846546605</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.20370370370370244</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>167.93313800178342</v>
+      </c>
+      <c r="W107">
+        <v>366.67869899862325</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-198.74556099683983</v>
+      </c>
+      <c r="Y107">
+        <v>-237.3858557747952</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
